--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.326658</v>
+      </c>
+      <c r="H2">
+        <v>8.653316</v>
+      </c>
+      <c r="I2">
+        <v>0.007049713162306648</v>
+      </c>
+      <c r="J2">
+        <v>0.004721073584627792</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.197427</v>
-      </c>
-      <c r="H2">
-        <v>0.394854</v>
-      </c>
-      <c r="I2">
-        <v>0.000452391028090995</v>
-      </c>
-      <c r="J2">
-        <v>0.0003016395050625994</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>0.141495733473</v>
+        <v>1.549761302362</v>
       </c>
       <c r="R2">
-        <v>0.848974400838</v>
+        <v>6.199045209448</v>
       </c>
       <c r="S2">
-        <v>0.000102973598168081</v>
+        <v>0.0003734829911852863</v>
       </c>
       <c r="T2">
-        <v>6.865941908044928E-05</v>
+        <v>0.0001697410317074343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,155 +590,155 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197427</v>
+        <v>4.326658</v>
       </c>
       <c r="H3">
-        <v>0.394854</v>
+        <v>8.653316</v>
       </c>
       <c r="I3">
-        <v>0.000452391028090995</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J3">
-        <v>0.0003016395050625994</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>0.480133513976</v>
+        <v>2.487235597854</v>
       </c>
       <c r="R3">
-        <v>2.880801083856</v>
+        <v>14.923413587124</v>
       </c>
       <c r="S3">
-        <v>0.000349417429922914</v>
+        <v>0.0005994085601784176</v>
       </c>
       <c r="T3">
-        <v>0.0002329800859821501</v>
+        <v>0.0004086299636941563</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.250719333333333</v>
+        <v>4.326658</v>
       </c>
       <c r="H4">
-        <v>3.752158</v>
+        <v>8.653316</v>
       </c>
       <c r="I4">
-        <v>0.002865941360907832</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J4">
-        <v>0.002866373601474653</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>0.8963892954806667</v>
+        <v>24.190210751602</v>
       </c>
       <c r="R4">
-        <v>8.067503659326</v>
+        <v>145.141264509612</v>
       </c>
       <c r="S4">
-        <v>0.0006523478047669101</v>
+        <v>0.005829692776004313</v>
       </c>
       <c r="T4">
-        <v>0.0006524461917013892</v>
+        <v>0.003974229441597656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.250719333333333</v>
+        <v>4.326658</v>
       </c>
       <c r="H5">
-        <v>3.752158</v>
+        <v>8.653316</v>
       </c>
       <c r="I5">
-        <v>0.002865941360907832</v>
+        <v>0.007049713162306648</v>
       </c>
       <c r="J5">
-        <v>0.002866373601474653</v>
+        <v>0.004721073584627792</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,246 +747,246 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>3.041692719390222</v>
+        <v>1.025456885922</v>
       </c>
       <c r="R5">
-        <v>27.375234474512</v>
+        <v>6.152741315532001</v>
       </c>
       <c r="S5">
-        <v>0.002213593556140922</v>
+        <v>0.0002471288349386316</v>
       </c>
       <c r="T5">
-        <v>0.002213927409773264</v>
+        <v>0.0001684731476285451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>262.0776013333333</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H6">
-        <v>786.232804</v>
+        <v>3.752158</v>
       </c>
       <c r="I6">
-        <v>0.6005336428492992</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J6">
-        <v>0.6006242151847004</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N6">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O6">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P6">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q6">
-        <v>187.8307547979987</v>
+        <v>0.4479939072873333</v>
       </c>
       <c r="R6">
-        <v>1690.476793181988</v>
+        <v>2.687963443724</v>
       </c>
       <c r="S6">
-        <v>0.1366939355232728</v>
+        <v>0.0001079637904698269</v>
       </c>
       <c r="T6">
-        <v>0.136714551668801</v>
+        <v>7.360128418392477E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>262.0776013333333</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H7">
-        <v>786.232804</v>
+        <v>3.752158</v>
       </c>
       <c r="I7">
-        <v>0.6005336428492992</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J7">
-        <v>0.6006242151847004</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N7">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O7">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P7">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q7">
-        <v>637.3608455914062</v>
+        <v>0.718992268118</v>
       </c>
       <c r="R7">
-        <v>5736.247610322655</v>
+        <v>6.470930413062</v>
       </c>
       <c r="S7">
-        <v>0.4638397073260264</v>
+        <v>0.0001732727372444607</v>
       </c>
       <c r="T7">
-        <v>0.4639096635158995</v>
+        <v>0.0001771857386595772</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.770183</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H8">
-        <v>5.310549</v>
+        <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.004056258299418022</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J8">
-        <v>0.004056870063290943</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N8">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O8">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P8">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q8">
-        <v>1.268688385917</v>
+        <v>6.992733020367334</v>
       </c>
       <c r="R8">
-        <v>11.418195473253</v>
+        <v>62.934597183306</v>
       </c>
       <c r="S8">
-        <v>0.0009232886734133024</v>
+        <v>0.001685205870753423</v>
       </c>
       <c r="T8">
-        <v>0.0009234279235825414</v>
+        <v>0.001723262711442201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.770183</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H9">
-        <v>5.310549</v>
+        <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.004056258299418022</v>
+        <v>0.002037880633632562</v>
       </c>
       <c r="J9">
-        <v>0.004056870063290943</v>
+        <v>0.002047101252184694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,42 +995,42 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N9">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O9">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P9">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q9">
-        <v>4.305004807704</v>
+        <v>0.296431738474</v>
       </c>
       <c r="R9">
-        <v>38.745043269336</v>
+        <v>2.667885646266</v>
       </c>
       <c r="S9">
-        <v>0.003132969626004719</v>
+        <v>7.14382351648521E-05</v>
       </c>
       <c r="T9">
-        <v>0.003133442139708401</v>
+        <v>7.305151789899115E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,108 +1039,976 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>171.1119283333333</v>
+        <v>109.0779523333333</v>
       </c>
       <c r="H10">
-        <v>513.335785</v>
+        <v>327.233857</v>
       </c>
       <c r="I10">
-        <v>0.3920917664622839</v>
+        <v>0.17772800075295</v>
       </c>
       <c r="J10">
-        <v>0.3921509016454713</v>
+        <v>0.1785321509440506</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N10">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O10">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P10">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q10">
-        <v>122.6357479245717</v>
+        <v>39.07052266832433</v>
       </c>
       <c r="R10">
-        <v>1103.721731321145</v>
+        <v>234.423136009946</v>
       </c>
       <c r="S10">
-        <v>0.08924823327084003</v>
+        <v>0.009415756898238641</v>
       </c>
       <c r="T10">
-        <v>0.08926169366729578</v>
+        <v>0.006418928015200532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>109.0779523333333</v>
+      </c>
+      <c r="H11">
+        <v>327.233857</v>
+      </c>
+      <c r="I11">
+        <v>0.17772800075295</v>
+      </c>
+      <c r="J11">
+        <v>0.1785321509440506</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.574863</v>
+      </c>
+      <c r="N11">
+        <v>1.724589</v>
+      </c>
+      <c r="O11">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P11">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q11">
+        <v>62.704878912197</v>
+      </c>
+      <c r="R11">
+        <v>564.343910209773</v>
+      </c>
+      <c r="S11">
+        <v>0.01511149213904436</v>
+      </c>
+      <c r="T11">
+        <v>0.0154527534999772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>109.0779523333333</v>
+      </c>
+      <c r="H12">
+        <v>327.233857</v>
+      </c>
+      <c r="I12">
+        <v>0.17772800075295</v>
+      </c>
+      <c r="J12">
+        <v>0.1785321509440506</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.590969</v>
+      </c>
+      <c r="N12">
+        <v>16.772907</v>
+      </c>
+      <c r="O12">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P12">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q12">
+        <v>609.8514500791443</v>
+      </c>
+      <c r="R12">
+        <v>5488.663050712299</v>
+      </c>
+      <c r="S12">
+        <v>0.1469704679082507</v>
+      </c>
+      <c r="T12">
+        <v>0.1502894877266654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>109.0779523333333</v>
+      </c>
+      <c r="H13">
+        <v>327.233857</v>
+      </c>
+      <c r="I13">
+        <v>0.17772800075295</v>
+      </c>
+      <c r="J13">
+        <v>0.1785321509440506</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.237009</v>
+      </c>
+      <c r="N13">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P13">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q13">
+        <v>25.852456404571</v>
+      </c>
+      <c r="R13">
+        <v>232.672107641139</v>
+      </c>
+      <c r="S13">
+        <v>0.006230283807416314</v>
+      </c>
+      <c r="T13">
+        <v>0.006370981702207478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>3.9665605</v>
+      </c>
+      <c r="H14">
+        <v>7.933121</v>
+      </c>
+      <c r="I14">
+        <v>0.006462982229225337</v>
+      </c>
+      <c r="J14">
+        <v>0.004328149809478357</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.358189</v>
+      </c>
+      <c r="N14">
+        <v>0.716378</v>
+      </c>
+      <c r="O14">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P14">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q14">
+        <v>1.4207783389345</v>
+      </c>
+      <c r="R14">
+        <v>5.683113355738</v>
+      </c>
+      <c r="S14">
+        <v>0.0003423988862205897</v>
+      </c>
+      <c r="T14">
+        <v>0.0001556138875778849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>3.9665605</v>
+      </c>
+      <c r="H15">
+        <v>7.933121</v>
+      </c>
+      <c r="I15">
+        <v>0.006462982229225337</v>
+      </c>
+      <c r="J15">
+        <v>0.004328149809478357</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.574863</v>
+      </c>
+      <c r="N15">
+        <v>1.724589</v>
+      </c>
+      <c r="O15">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P15">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q15">
+        <v>2.2802288687115</v>
+      </c>
+      <c r="R15">
+        <v>13.681373212269</v>
+      </c>
+      <c r="S15">
+        <v>0.0005495212050884503</v>
+      </c>
+      <c r="T15">
+        <v>0.0003746206594340653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>171.1119283333333</v>
-      </c>
-      <c r="H11">
-        <v>513.335785</v>
-      </c>
-      <c r="I11">
-        <v>0.3920917664622839</v>
-      </c>
-      <c r="J11">
-        <v>0.3921509016454713</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.431954666666666</v>
-      </c>
-      <c r="N11">
-        <v>7.295864</v>
-      </c>
-      <c r="O11">
-        <v>0.7723792211295388</v>
-      </c>
-      <c r="P11">
-        <v>0.7723792211295388</v>
-      </c>
-      <c r="Q11">
-        <v>416.1364526325822</v>
-      </c>
-      <c r="R11">
-        <v>3745.22807369324</v>
-      </c>
-      <c r="S11">
-        <v>0.3028435331914439</v>
-      </c>
-      <c r="T11">
-        <v>0.3028892079781755</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>3.9665605</v>
+      </c>
+      <c r="H16">
+        <v>7.933121</v>
+      </c>
+      <c r="I16">
+        <v>0.006462982229225337</v>
+      </c>
+      <c r="J16">
+        <v>0.004328149809478357</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.590969</v>
+      </c>
+      <c r="N16">
+        <v>16.772907</v>
+      </c>
+      <c r="O16">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P16">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q16">
+        <v>22.1769167921245</v>
+      </c>
+      <c r="R16">
+        <v>133.061500752747</v>
+      </c>
+      <c r="S16">
+        <v>0.005344501250719159</v>
+      </c>
+      <c r="T16">
+        <v>0.003643463735977819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>3.9665605</v>
+      </c>
+      <c r="H17">
+        <v>7.933121</v>
+      </c>
+      <c r="I17">
+        <v>0.006462982229225337</v>
+      </c>
+      <c r="J17">
+        <v>0.004328149809478357</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.237009</v>
+      </c>
+      <c r="N17">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P17">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q17">
+        <v>0.9401105375445001</v>
+      </c>
+      <c r="R17">
+        <v>5.640663225267001</v>
+      </c>
+      <c r="S17">
+        <v>0.0002265608871971383</v>
+      </c>
+      <c r="T17">
+        <v>0.0001544515264885867</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>65.86335866666667</v>
+      </c>
+      <c r="H18">
+        <v>197.590076</v>
+      </c>
+      <c r="I18">
+        <v>0.1073155739386204</v>
+      </c>
+      <c r="J18">
+        <v>0.1078011352397391</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.358189</v>
+      </c>
+      <c r="N18">
+        <v>0.716378</v>
+      </c>
+      <c r="O18">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P18">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q18">
+        <v>23.59153057745467</v>
+      </c>
+      <c r="R18">
+        <v>141.549183464728</v>
+      </c>
+      <c r="S18">
+        <v>0.005685414517240792</v>
+      </c>
+      <c r="T18">
+        <v>0.003875871787808321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>65.86335866666667</v>
+      </c>
+      <c r="H19">
+        <v>197.590076</v>
+      </c>
+      <c r="I19">
+        <v>0.1073155739386204</v>
+      </c>
+      <c r="J19">
+        <v>0.1078011352397391</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.574863</v>
+      </c>
+      <c r="N19">
+        <v>1.724589</v>
+      </c>
+      <c r="O19">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P19">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q19">
+        <v>37.862407953196</v>
+      </c>
+      <c r="R19">
+        <v>340.761671578764</v>
+      </c>
+      <c r="S19">
+        <v>0.00912460864410854</v>
+      </c>
+      <c r="T19">
+        <v>0.009330668795893457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>65.86335866666667</v>
+      </c>
+      <c r="H20">
+        <v>197.590076</v>
+      </c>
+      <c r="I20">
+        <v>0.1073155739386204</v>
+      </c>
+      <c r="J20">
+        <v>0.1078011352397391</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.590969</v>
+      </c>
+      <c r="N20">
+        <v>16.772907</v>
+      </c>
+      <c r="O20">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P20">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q20">
+        <v>368.2399965412147</v>
+      </c>
+      <c r="R20">
+        <v>3314.159968870932</v>
+      </c>
+      <c r="S20">
+        <v>0.08874358597847293</v>
+      </c>
+      <c r="T20">
+        <v>0.09074767377115531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>65.86335866666667</v>
+      </c>
+      <c r="H21">
+        <v>197.590076</v>
+      </c>
+      <c r="I21">
+        <v>0.1073155739386204</v>
+      </c>
+      <c r="J21">
+        <v>0.1078011352397391</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.237009</v>
+      </c>
+      <c r="N21">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P21">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q21">
+        <v>15.610208774228</v>
+      </c>
+      <c r="R21">
+        <v>140.491878968052</v>
+      </c>
+      <c r="S21">
+        <v>0.003761964798798185</v>
+      </c>
+      <c r="T21">
+        <v>0.003846920884881986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H22">
+        <v>1287.750229</v>
+      </c>
+      <c r="I22">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J22">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.358189</v>
+      </c>
+      <c r="N22">
+        <v>0.716378</v>
+      </c>
+      <c r="O22">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P22">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q22">
+        <v>153.7526555917603</v>
+      </c>
+      <c r="R22">
+        <v>922.515933550562</v>
+      </c>
+      <c r="S22">
+        <v>0.03705344921541887</v>
+      </c>
+      <c r="T22">
+        <v>0.02526014910953728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H23">
+        <v>1287.750229</v>
+      </c>
+      <c r="I23">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J23">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.574863</v>
+      </c>
+      <c r="N23">
+        <v>1.724589</v>
+      </c>
+      <c r="O23">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P23">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q23">
+        <v>246.759986631209</v>
+      </c>
+      <c r="R23">
+        <v>2220.839879680881</v>
+      </c>
+      <c r="S23">
+        <v>0.05946764690239884</v>
+      </c>
+      <c r="T23">
+        <v>0.06081059900313492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H24">
+        <v>1287.750229</v>
+      </c>
+      <c r="I24">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J24">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.590969</v>
+      </c>
+      <c r="N24">
+        <v>16.772907</v>
+      </c>
+      <c r="O24">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P24">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q24">
+        <v>2399.9238700273</v>
+      </c>
+      <c r="R24">
+        <v>21599.3148302457</v>
+      </c>
+      <c r="S24">
+        <v>0.5783669680154366</v>
+      </c>
+      <c r="T24">
+        <v>0.5914281731437895</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>429.2500763333333</v>
+      </c>
+      <c r="H25">
+        <v>1287.750229</v>
+      </c>
+      <c r="I25">
+        <v>0.6994058492832651</v>
+      </c>
+      <c r="J25">
+        <v>0.7025703891699194</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.237009</v>
+      </c>
+      <c r="N25">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P25">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q25">
+        <v>101.736131341687</v>
+      </c>
+      <c r="R25">
+        <v>915.625182075183</v>
+      </c>
+      <c r="S25">
+        <v>0.02451778515001078</v>
+      </c>
+      <c r="T25">
+        <v>0.02507146791345765</v>
       </c>
     </row>
   </sheetData>
